--- a/spreadsheet/macrofree/aro_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.en.xlsx
@@ -7266,6 +7266,11 @@
           <t>Not verified</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Identity and Access Management</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/Azure/review-checklists/main/checklists/</t>
@@ -7298,6 +7303,11 @@
           <t>Open</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Network topology and connectivity</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>There is an action item associated to this check</t>
@@ -7320,6 +7330,11 @@
           <t>Fulfilled</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Operations management</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>This check has been verified, and there are no further action items associated to it</t>
@@ -7337,6 +7352,11 @@
           <t>Not required</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Platform Automation</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recommendation understood, but not needed by current requirements</t>
@@ -7352,6 +7372,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Security</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.en.xlsx
@@ -1687,11 +1687,7 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
         </is>
       </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -1737,11 +1733,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
@@ -1787,11 +1779,7 @@
           <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
@@ -1837,11 +1825,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
         </is>
       </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
@@ -1887,11 +1871,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
@@ -1983,11 +1963,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
@@ -2033,11 +2008,6 @@
           <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
-        </is>
-      </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
@@ -2083,11 +2053,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
@@ -2133,11 +2098,6 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
@@ -2183,11 +2143,6 @@
           <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
@@ -2233,11 +2188,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
         </is>
       </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
@@ -2283,11 +2234,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2563,11 +2510,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
         </is>
       </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
@@ -2613,11 +2556,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
         </is>
       </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -2663,11 +2602,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.en.xlsx
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Define OpenShift projects to restrict RBAC privilege and isolate workloads in your cluster.</t>
+          <t>When using AAD authentication, remove kubeadmin user from the cluster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Define the required RBAC roles in OpenShift are scoped to either a project or a cluster.</t>
+          <t>Define OpenShift projects to restrict RBAC privilege and isolate workloads in your cluster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimize the number of users who have administrator rights and secrets access.</t>
+          <t>Define the required RBAC roles in OpenShift are scoped to either a project or a cluster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use Privileged Identity Management in AAD for ARO users with privileged roles.</t>
+          <t>Minimize the number of users who have administrator rights and secrets access.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network/IP Protection to protect the virtual network you use for the ARO cluster unless you use Azure Firewall or WAF in a centralized subscription</t>
+          <t>Use Privileged Identity Management in AAD for ARO users with privileged roles.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>All web applications you configure to use an ingress should use TLS encryption and shouldn't allow access over unencrypted HTTP.</t>
+          <t>Use Azure DDoS Network/IP Protection to protect the virtual network you use for the ARO cluster unless you use Azure Firewall or WAF in a centralized subscription</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF to securely publish ARO applications to the internet, especially in multi-region environments.</t>
+          <t>All web applications you configure to use an ingress should use TLS encryption and shouldn't allow access over unencrypted HTTP.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>If exposing an app on ARO with Azure Front Door, use private link to connect Front Door with the ARO router.</t>
+          <t>Use Azure Front Door with WAF to securely publish ARO applications to the internet, especially in multi-region environments.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>If your security policy requires you to inspect all outbound internet traffic that's generated in the ARO cluster, secure egress network traffic by using Azure Firewall or an NVA.</t>
+          <t>If exposing an app on ARO with Azure Front Door, use private link to connect Front Door with the ARO router.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Private access</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>If your security policy requires you to use a private IP address for the OpenShift API, deploy a private ARO cluster.</t>
+          <t>If your security policy requires you to inspect all outbound internet traffic that's generated in the ARO cluster, secure egress network traffic by using Azure Firewall or an NVA.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Private Link to secure network connections to managed Azure services, including to Azure Container Registry.</t>
+          <t>If your security policy requires you to use a private IP address for the OpenShift API, deploy a private ARO cluster.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Private access</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Establish a monitoring process using the inbuilt Prometheus, OpenShift Logging or Container Insights integration.</t>
+          <t>Use Azure Private Link to secure network connections to managed Azure services, including to Azure Container Registry.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automate the application delivery process through DevOps practices and CI/CD solutions, such as Pipelines/GitOps provided by OpenShift.</t>
+          <t>Establish a monitoring process using the inbuilt Prometheus, OpenShift Logging or Container Insights integration.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Whenever possible, remove the service state from inside containers. Instead, use an Azure platform as a service (PaaS) that supports multiregion replication.</t>
+          <t>Automate the application delivery process through DevOps practices and CI/CD solutions, such as Pipelines/GitOps provided by OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use RWX storage with inbuilt Azure Files storage class.</t>
+          <t>Whenever possible, remove the service state from inside containers. Instead, use an Azure platform as a service (PaaS) that supports multiregion replication.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use pod requests and limits to manage the compute resources within a cluster.</t>
+          <t>Use RWX storage with inbuilt Azure Files storage class.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Enforce resource quotas on projects.</t>
+          <t>Use pod requests and limits to manage the compute resources within a cluster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Define ClusterAutoScaler and MachineAutoScaler to scale machines when your cluster runs out of resources to support more deployments.</t>
+          <t>Enforce resource quotas on projects.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use virtual machine sizes that are large enough to contain multiple container instances so you get the benefits of increased density, but not so large that your cluster can't handle the workload of a failing node.</t>
+          <t>Define ClusterAutoScaler and MachineAutoScaler to scale machines when your cluster runs out of resources to support more deployments.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Deploy machine health checks to automatically repair damaged machines in a machine pool.</t>
+          <t>Use virtual machine sizes that are large enough to contain multiple container instances so you get the benefits of increased density, but not so large that your cluster can't handle the workload of a failing node.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use an alerting system to provide notifications when things need direct action: Container Insights metric alerts or in-built Alerting UI.</t>
+          <t>Deploy machine health checks to automatically repair damaged machines in a machine pool.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the cluster is created in a region that supports AZs and create a machine set for each AZ.</t>
+          <t>Use an alerting system to provide notifications when things need direct action: Container Insights metric alerts or in-built Alerting UI.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Create infrastructure machine sets to hold infrastructure components. Apply specific Kubernetes labels to these machines and then update the infrastructure components to run on only those machines.</t>
+          <t>Ensure that the cluster is created in a region that supports AZs and create a machine set for each AZ.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Create application backup and plan for restore and include persistent volumes in the backup.</t>
+          <t>Create infrastructure machine sets to hold infrastructure components. Apply specific Kubernetes labels to these machines and then update the infrastructure components to run on only those machines.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use pod priorities, so that in case of limited resources the most critical pods will run.</t>
+          <t>Create application backup and plan for restore and include persistent volumes in the backup.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regulate cluster functions using admission plug-ins, which are commonly used to enforce security policy, resource limitations, or configuration requirements.</t>
+          <t>Use pod priorities, so that in case of limited resources the most critical pods will run.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Store your container images in Azure Container Registry and geo-replicate the registry to each region.</t>
+          <t>Regulate cluster functions using admission plug-ins, which are commonly used to enforce security policy, resource limitations, or configuration requirements.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Workload</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Optimize the CPU and memory request values, and maximize the efficiency of the cluster resources using vertical pod autoscaler.</t>
+          <t>Store your container images in Azure Container Registry and geo-replicate the registry to each region.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Add health probes to your pods to monitor application health. Make sure pods contain livenessProbe and readinessProbe. Use Startup probes to determine the point at which the application has started up.</t>
+          <t>Optimize the CPU and memory request values, and maximize the efficiency of the cluster resources using vertical pod autoscaler.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Scale pods to meet demand using horizontal pod autoscaler.</t>
+          <t>Add health probes to your pods to monitor application health. Make sure pods contain livenessProbe and readinessProbe. Use Startup probes to determine the point at which the application has started up.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use disruption budgets to ensure the required number of pod replicas exist to handle expected application load.</t>
+          <t>Scale pods to meet demand using horizontal pod autoscaler.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Use pod topology constraints to automatically schedule pods on nodes throughout the cluster.</t>
+          <t>Use disruption budgets to ensure the required number of pod replicas exist to handle expected application load.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Consider blue/green or canary strategies to deploy new releases of application.</t>
+          <t>Use pod topology constraints to automatically schedule pods on nodes throughout the cluster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Consider using Red Hat OpenShift GitOps. Red Hat OpenShift GitOps uses Argo CD to maintain cluster resources and support application CI/CD.</t>
+          <t>Consider blue/green or canary strategies to deploy new releases of application.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Control plane</t>
+          <t>Workload</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Keep your clusters on the latest OpenShift version to avoid potential security or upgrade issues.</t>
+          <t>Consider using Red Hat OpenShift GitOps. Red Hat OpenShift GitOps uses Argo CD to maintain cluster resources and support application CI/CD.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Connect Azure Red Hat OpenShift clusters to Azure Arc-enabled Kubernetes.</t>
+          <t>Keep your clusters on the latest OpenShift version to avoid potential security or upgrade issues.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Control plane</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>For Azure Red Hat OpenShift 4 clusters, etcd data isn't encrypted by default, but it's recommended to enable etcd encryption to provide another layer of data security.</t>
+          <t>Connect Azure Red Hat OpenShift clusters to Azure Arc-enabled Kubernetes.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Posture</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender for Containers supported via Arc-enabled Kubernetes to secure clusters, containers, and applications.</t>
+          <t>For Azure Red Hat OpenShift 4 clusters, etcd data isn't encrypted by default, but it's recommended to enable etcd encryption to provide another layer of data security.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Posture</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>For applications that require access to sensitive information, use a service principal and the AKV Secrets Provider with the extension for Arc-enabled Kubernetes clusters.</t>
+          <t>Use Microsoft Defender for Containers supported via Arc-enabled Kubernetes to secure clusters, containers, and applications.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Workload</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Secure pod access to resources. Provide the least number of permissions, and avoid using root or privileged escalation.</t>
+          <t>For applications that require access to sensitive information, use a service principal and the AKV Secrets Provider with the extension for Arc-enabled Kubernetes clusters.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Monitor and enforce configuration by using the Azure Policy Extension.</t>
+          <t>Secure pod access to resources. Provide the least number of permissions, and avoid using root or privileged escalation.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities with Microsoft Defender or any other image scanning solution.</t>
+          <t>Monitor and enforce configuration by using the Azure Policy Extension.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Deploy a dedicated and private instance of Azure Container Registry to each landing zone subscription.</t>
+          <t>Scan your images for vulnerabilities with Microsoft Defender or any other image scanning solution.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Workload</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Deploy a dedicated and private instance of Azure Container Registry to each landing zone subscription.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aro_checklist.en.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.en.xlsx
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Define OpenShift projects to restrict RBAC privilege and isolate workloads in your cluster.</t>
+          <t>When using AAD authentication, remove kubeadmin user from the cluster.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Define the required RBAC roles in OpenShift are scoped to either a project or a cluster.</t>
+          <t>Define OpenShift projects to restrict RBAC privilege and isolate workloads in your cluster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Minimize the number of users who have administrator rights and secrets access.</t>
+          <t>Define the required RBAC roles in OpenShift are scoped to either a project or a cluster.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use Privileged Identity Management in AAD for ARO users with privileged roles.</t>
+          <t>Minimize the number of users who have administrator rights and secrets access.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network/IP Protection to protect the virtual network you use for the ARO cluster unless you use Azure Firewall or WAF in a centralized subscription</t>
+          <t>Use Privileged Identity Management in AAD for ARO users with privileged roles.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1386,18 +1382,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>DDoS</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>All web applications you configure to use an ingress should use TLS encryption and shouldn't allow access over unencrypted HTTP.</t>
+          <t>Use Azure DDoS Network/IP Protection to protect the virtual network you use for the ARO cluster unless you use Azure Firewall or WAF in a centralized subscription</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1428,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF to securely publish ARO applications to the internet, especially in multi-region environments.</t>
+          <t>All web applications you configure to use an ingress should use TLS encryption and shouldn't allow access over unencrypted HTTP.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>If exposing an app on ARO with Azure Front Door, use private link to connect Front Door with the ARO router.</t>
+          <t>Use Azure Front Door with WAF to securely publish ARO applications to the internet, especially in multi-region environments.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>If your security policy requires you to inspect all outbound internet traffic that's generated in the ARO cluster, secure egress network traffic by using Azure Firewall or an NVA.</t>
+          <t>If exposing an app on ARO with Azure Front Door, use private link to connect Front Door with the ARO router.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1566,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Private access</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>If your security policy requires you to use a private IP address for the OpenShift API, deploy a private ARO cluster.</t>
+          <t>If your security policy requires you to inspect all outbound internet traffic that's generated in the ARO cluster, secure egress network traffic by using Azure Firewall or an NVA.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Private Link to secure network connections to managed Azure services, including to Azure Container Registry.</t>
+          <t>If your security policy requires you to use a private IP address for the OpenShift API, deploy a private ARO cluster.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Private access</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Establish a monitoring process using the inbuilt Prometheus, OpenShift Logging or Container Insights integration.</t>
+          <t>Use Azure Private Link to secure network connections to managed Azure services, including to Azure Container Registry.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Automate the application delivery process through DevOps practices and CI/CD solutions, such as Pipelines/GitOps provided by OpenShift.</t>
+          <t>Establish a monitoring process using the inbuilt Prometheus, OpenShift Logging or Container Insights integration.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Whenever possible, remove the service state from inside containers. Instead, use an Azure platform as a service (PaaS) that supports multiregion replication.</t>
+          <t>Automate the application delivery process through DevOps practices and CI/CD solutions, such as Pipelines/GitOps provided by OpenShift.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use RWX storage with inbuilt Azure Files storage class.</t>
+          <t>Whenever possible, remove the service state from inside containers. Instead, use an Azure platform as a service (PaaS) that supports multiregion replication.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use pod requests and limits to manage the compute resources within a cluster.</t>
+          <t>Use RWX storage with inbuilt Azure Files storage class.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Enforce resource quotas on projects.</t>
+          <t>Use pod requests and limits to manage the compute resources within a cluster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Define ClusterAutoScaler and MachineAutoScaler to scale machines when your cluster runs out of resources to support more deployments.</t>
+          <t>Enforce resource quotas on projects.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use virtual machine sizes that are large enough to contain multiple container instances so you get the benefits of increased density, but not so large that your cluster can't handle the workload of a failing node.</t>
+          <t>Define ClusterAutoScaler and MachineAutoScaler to scale machines when your cluster runs out of resources to support more deployments.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Deploy machine health checks to automatically repair damaged machines in a machine pool.</t>
+          <t>Use virtual machine sizes that are large enough to contain multiple container instances so you get the benefits of increased density, but not so large that your cluster can't handle the workload of a failing node.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use an alerting system to provide notifications when things need direct action: Container Insights metric alerts or in-built Alerting UI.</t>
+          <t>Deploy machine health checks to automatically repair damaged machines in a machine pool.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the cluster is created in a region that supports AZs and create a machine set for each AZ.</t>
+          <t>Use an alerting system to provide notifications when things need direct action: Container Insights metric alerts or in-built Alerting UI.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Create infrastructure machine sets to hold infrastructure components. Apply specific Kubernetes labels to these machines and then update the infrastructure components to run on only those machines.</t>
+          <t>Ensure that the cluster is created in a region that supports AZs and create a machine set for each AZ.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Create application backup and plan for restore and include persistent volumes in the backup.</t>
+          <t>Create infrastructure machine sets to hold infrastructure components. Apply specific Kubernetes labels to these machines and then update the infrastructure components to run on only those machines.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use pod priorities, so that in case of limited resources the most critical pods will run.</t>
+          <t>Create application backup and plan for restore and include persistent volumes in the backup.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Regulate cluster functions using admission plug-ins, which are commonly used to enforce security policy, resource limitations, or configuration requirements.</t>
+          <t>Use pod priorities, so that in case of limited resources the most critical pods will run.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Store your container images in Azure Container Registry and geo-replicate the registry to each region.</t>
+          <t>Regulate cluster functions using admission plug-ins, which are commonly used to enforce security policy, resource limitations, or configuration requirements.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Workload</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Optimize the CPU and memory request values, and maximize the efficiency of the cluster resources using vertical pod autoscaler.</t>
+          <t>Store your container images in Azure Container Registry and geo-replicate the registry to each region.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Add health probes to your pods to monitor application health. Make sure pods contain livenessProbe and readinessProbe. Use Startup probes to determine the point at which the application has started up.</t>
+          <t>Optimize the CPU and memory request values, and maximize the efficiency of the cluster resources using vertical pod autoscaler.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Scale pods to meet demand using horizontal pod autoscaler.</t>
+          <t>Add health probes to your pods to monitor application health. Make sure pods contain livenessProbe and readinessProbe. Use Startup probes to determine the point at which the application has started up.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Use disruption budgets to ensure the required number of pod replicas exist to handle expected application load.</t>
+          <t>Scale pods to meet demand using horizontal pod autoscaler.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Use pod topology constraints to automatically schedule pods on nodes throughout the cluster.</t>
+          <t>Use disruption budgets to ensure the required number of pod replicas exist to handle expected application load.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Consider blue/green or canary strategies to deploy new releases of application.</t>
+          <t>Use pod topology constraints to automatically schedule pods on nodes throughout the cluster.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Consider using Red Hat OpenShift GitOps. Red Hat OpenShift GitOps uses Argo CD to maintain cluster resources and support application CI/CD.</t>
+          <t>Consider blue/green or canary strategies to deploy new releases of application.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Control plane</t>
+          <t>Workload</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Keep your clusters on the latest OpenShift version to avoid potential security or upgrade issues.</t>
+          <t>Consider using Red Hat OpenShift GitOps. Red Hat OpenShift GitOps uses Argo CD to maintain cluster resources and support application CI/CD.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2831,7 +2762,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Connect Azure Red Hat OpenShift clusters to Azure Arc-enabled Kubernetes.</t>
+          <t>Keep your clusters on the latest OpenShift version to avoid potential security or upgrade issues.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Control plane</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>For Azure Red Hat OpenShift 4 clusters, etcd data isn't encrypted by default, but it's recommended to enable etcd encryption to provide another layer of data security.</t>
+          <t>Connect Azure Red Hat OpenShift clusters to Azure Arc-enabled Kubernetes.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Posture</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender for Containers supported via Arc-enabled Kubernetes to secure clusters, containers, and applications.</t>
+          <t>For Azure Red Hat OpenShift 4 clusters, etcd data isn't encrypted by default, but it's recommended to enable etcd encryption to provide another layer of data security.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Posture</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>For applications that require access to sensitive information, use a service principal and the AKV Secrets Provider with the extension for Arc-enabled Kubernetes clusters.</t>
+          <t>Use Microsoft Defender for Containers supported via Arc-enabled Kubernetes to secure clusters, containers, and applications.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Workload</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Secure pod access to resources. Provide the least number of permissions, and avoid using root or privileged escalation.</t>
+          <t>For applications that require access to sensitive information, use a service principal and the AKV Secrets Provider with the extension for Arc-enabled Kubernetes clusters.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Monitor and enforce configuration by using the Azure Policy Extension.</t>
+          <t>Secure pod access to resources. Provide the least number of permissions, and avoid using root or privileged escalation.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities with Microsoft Defender or any other image scanning solution.</t>
+          <t>Monitor and enforce configuration by using the Azure Policy Extension.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Deploy a dedicated and private instance of Azure Container Registry to each landing zone subscription.</t>
+          <t>Scan your images for vulnerabilities with Microsoft Defender or any other image scanning solution.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Workload</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Deploy a dedicated and private instance of Azure Container Registry to each landing zone subscription.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7349,7 +7309,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Not required</t>
+          <t>Risk accepted</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
